--- a/locust分享素材/TPS对比.xlsx
+++ b/locust分享素材/TPS对比.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Desktop\locust分享素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PycharmProjects\locust-latest\locust分享素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B22E0E-B6DF-48B5-A010-8DA65BC026DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A87AFC7-043E-4784-8866-E8B5E40C0952}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="12672" windowHeight="5544"/>
   </bookViews>
   <sheets>
     <sheet name="TPS对比" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>locust_FastHttp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,23 +53,11 @@
     <t>测试机内存占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>740M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -160,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,9 +161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -344,6 +329,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -385,13 +371,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1668</c:v>
+                  <c:v>9330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1687</c:v>
+                  <c:v>8220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,6 +452,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -588,6 +575,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -626,16 +614,16 @@
             <c:numRef>
               <c:f>TPS对比!$C$8:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,6 +698,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -751,13 +740,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,6 +861,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1512,10 +1502,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1839,11 +1829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29EADD6-BCE6-453A-86C0-BB5554B7739A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1873,13 +1863,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1668</v>
+        <v>9330</v>
       </c>
       <c r="D6" s="4">
-        <v>780</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="4">
-        <v>1687</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1892,7 +1882,7 @@
       <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1901,27 +1891,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>0.2</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="5">
-        <v>0.18</v>
+        <v>6400</v>
       </c>
       <c r="E8" s="5">
-        <v>0.3</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+      <c r="C9" s="4">
+        <v>320</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
+      <c r="D9" s="4">
+        <v>300</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
+      <c r="E9" s="4">
+        <v>3400</v>
       </c>
     </row>
   </sheetData>
